--- a/Data/Wax_Dipping/merges_surface_area_curve.xlsx
+++ b/Data/Wax_Dipping/merges_surface_area_curve.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmerges/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmerges/Desktop/Repositories/Moorea_SGDdilutionassay_Metabolism/Data/Wax_Dipping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17638452-28B2-494E-80CD-58E11D90F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D8649-21B6-084F-AB61-7D8B7F9E1BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{AFDAEAEA-587B-8447-8430-5EF34880F428}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,37 +390,37 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17999999999999972</c:v>
+                  <c:v>0.65259999999999962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36700000000000443</c:v>
+                  <c:v>0.85300000000000153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9000000000003752E-2</c:v>
+                  <c:v>0.52359999999999829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17999999999999972</c:v>
+                  <c:v>0.27530000000000054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16900000000000404</c:v>
+                  <c:v>0.29580000000000073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13699999999999335</c:v>
+                  <c:v>0.22489999999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21280000000000143</c:v>
+                  <c:v>0.19489999999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27000000000000313</c:v>
+                  <c:v>0.10830000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23100000000000165</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1999999999999602E-2</c:v>
+                  <c:v>5.0599999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11400000000000432</c:v>
+                  <c:v>0.51170000000000027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,16 +1270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447363</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>641598</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>701363</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>78067</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373529</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1605,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EA8F57-22D8-1F4F-9F32-C318D236D4E8}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2537,14 +2536,14 @@
         <v>3632.466505713438</v>
       </c>
       <c r="D7" s="9">
-        <v>55.253999999999998</v>
-      </c>
-      <c r="E7" s="9">
-        <v>55.433999999999997</v>
+        <v>54.546700000000001</v>
+      </c>
+      <c r="E7">
+        <v>55.199300000000001</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F17" si="0">E7-D7</f>
-        <v>0.17999999999999972</v>
+        <f>E7-D7</f>
+        <v>0.65259999999999962</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -2559,7 +2558,7 @@
         <v>58</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M16" si="1">((3.14159265359*((K7/2)^2)+(2*3.14159265359*(K7/2)*L7)))</f>
+        <f t="shared" ref="M7:M16" si="0">((3.14159265359*((K7/2)^2)+(2*3.14159265359*(K7/2)*L7)))</f>
         <v>4172.8204421309183</v>
       </c>
     </row>
@@ -2571,18 +2570,18 @@
         <v>58</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C17" si="2">((3.14159265359*((A8/2)^2)+(2*3.14159265359*(A8/2)*B8)))</f>
+        <f t="shared" ref="C8:C17" si="1">((3.14159265359*((A8/2)^2)+(2*3.14159265359*(A8/2)*B8)))</f>
         <v>4172.8204421309183</v>
       </c>
       <c r="D8" s="9">
-        <v>52.244999999999997</v>
-      </c>
-      <c r="E8" s="9">
-        <v>52.612000000000002</v>
+        <v>50.776899999999998</v>
+      </c>
+      <c r="E8">
+        <v>51.629899999999999</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.36700000000000443</v>
+        <f t="shared" ref="F8:F17" si="2">E8-D8</f>
+        <v>0.85300000000000153</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2597,7 +2596,7 @@
         <v>45</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3141.5926535899998</v>
       </c>
     </row>
@@ -2609,18 +2608,18 @@
         <v>45</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3141.5926535899998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>26.9998</v>
+      </c>
+      <c r="E9">
+        <v>27.523399999999999</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
-        <v>3141.5926535899998</v>
-      </c>
-      <c r="D9" s="9">
-        <v>51.984999999999999</v>
-      </c>
-      <c r="E9" s="9">
-        <v>52.084000000000003</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>9.9000000000003752E-2</v>
+        <v>0.52359999999999829</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -2635,7 +2634,7 @@
         <v>46</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2177.1237089378701</v>
       </c>
     </row>
@@ -2647,18 +2646,18 @@
         <v>46</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2177.1237089378701</v>
+      </c>
+      <c r="D10" s="9">
+        <v>7.2653999999999996</v>
+      </c>
+      <c r="E10">
+        <v>7.5407000000000002</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="2"/>
-        <v>2177.1237089378701</v>
-      </c>
-      <c r="D10" s="9">
-        <v>47.987000000000002</v>
-      </c>
-      <c r="E10" s="9">
-        <v>48.167000000000002</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.17999999999999972</v>
+        <v>0.27530000000000054</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -2673,7 +2672,7 @@
         <v>47</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1719.2365796771276</v>
       </c>
     </row>
@@ -2685,18 +2684,18 @@
         <v>47</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1719.2365796771276</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="E11">
+        <v>4.9278000000000004</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="2"/>
-        <v>1719.2365796771276</v>
-      </c>
-      <c r="D11" s="9">
-        <v>44.853999999999999</v>
-      </c>
-      <c r="E11" s="9">
-        <v>45.023000000000003</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16900000000000404</v>
+        <v>0.29580000000000073</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -2711,7 +2710,7 @@
         <v>41</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1366.5928043116498</v>
       </c>
     </row>
@@ -2723,18 +2722,18 @@
         <v>41</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1366.5928043116498</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4.0846999999999998</v>
+      </c>
+      <c r="E12">
+        <v>4.3095999999999997</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
-        <v>1366.5928043116498</v>
-      </c>
-      <c r="D12" s="9">
-        <v>51.843000000000004</v>
-      </c>
-      <c r="E12" s="9">
-        <v>51.98</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13699999999999335</v>
+        <v>0.22489999999999988</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
@@ -2749,7 +2748,7 @@
         <v>50</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>970.75212995931008</v>
       </c>
     </row>
@@ -2761,18 +2760,18 @@
         <v>50</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>970.75212995931008</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.8996999999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.0945999999999998</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
-        <v>970.75212995931008</v>
-      </c>
-      <c r="D13" s="9">
-        <v>39.832000000000001</v>
-      </c>
-      <c r="E13" s="9">
-        <v>40.044800000000002</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.21280000000000143</v>
+        <v>0.19489999999999985</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
@@ -2787,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>663.66144807088745</v>
       </c>
     </row>
@@ -2799,18 +2798,18 @@
         <v>41</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>663.66144807088745</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.3389</v>
+      </c>
+      <c r="E14">
+        <v>1.4472</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>663.66144807088745</v>
-      </c>
-      <c r="D14" s="9">
-        <v>37.985999999999997</v>
-      </c>
-      <c r="E14" s="9">
-        <v>38.256</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.27000000000000313</v>
+        <v>0.10830000000000006</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -2825,7 +2824,7 @@
         <v>58</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>741.41586624724005</v>
       </c>
     </row>
@@ -2837,18 +2836,18 @@
         <v>58</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>741.41586624724005</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.8479000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1.9749000000000001</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
-        <v>741.41586624724005</v>
-      </c>
-      <c r="D15" s="9">
-        <v>38.567</v>
-      </c>
-      <c r="E15" s="9">
-        <v>38.798000000000002</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.23100000000000165</v>
+        <v>0.127</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -2863,7 +2862,7 @@
         <v>50</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>317.30085801259003</v>
       </c>
     </row>
@@ -2875,18 +2874,18 @@
         <v>50</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>317.30085801259003</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.2445</v>
+      </c>
+      <c r="E16">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="2"/>
-        <v>317.30085801259003</v>
-      </c>
-      <c r="D16" s="9">
-        <v>36.093000000000004</v>
-      </c>
-      <c r="E16" s="9">
-        <v>36.145000000000003</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999602E-2</v>
+        <v>5.0599999999999978E-2</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -2901,39 +2900,83 @@
         <v>58</v>
       </c>
       <c r="M16">
+        <f t="shared" si="0"/>
+        <v>2704.9112747409904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>2704.9112747409904</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>58</v>
-      </c>
-      <c r="C17">
+      <c r="D17" s="9">
+        <v>6.4805999999999999</v>
+      </c>
+      <c r="E17">
+        <v>6.9923000000000002</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>2704.9112747409904</v>
-      </c>
-      <c r="D17" s="9">
-        <v>48.341999999999999</v>
-      </c>
-      <c r="E17" s="9">
-        <v>48.456000000000003</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11400000000000432</v>
+        <v>0.51170000000000027</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Wax_Dipping/merges_surface_area_curve.xlsx
+++ b/Data/Wax_Dipping/merges_surface_area_curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmerges/Desktop/Repositories/Moorea_SGDdilutionassay_Metabolism/Data/Wax_Dipping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D8649-21B6-084F-AB61-7D8B7F9E1BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C5D9A-507E-5445-9D70-066ED92F1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{AFDAEAEA-587B-8447-8430-5EF34880F428}"/>
   </bookViews>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EA8F57-22D8-1F4F-9F32-C318D236D4E8}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Wax_Dipping/merges_surface_area_curve.xlsx
+++ b/Data/Wax_Dipping/merges_surface_area_curve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmerges/Desktop/Repositories/Moorea_SGDdilutionassay_Metabolism/Data/Wax_Dipping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C5D9A-507E-5445-9D70-066ED92F1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C8BB4-4B08-E547-8CF6-8E5E0701654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{AFDAEAEA-587B-8447-8430-5EF34880F428}"/>
   </bookViews>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EA8F57-22D8-1F4F-9F32-C318D236D4E8}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J32" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Wax_Dipping/merges_surface_area_curve.xlsx
+++ b/Data/Wax_Dipping/merges_surface_area_curve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahmerges/Desktop/Repositories/Moorea_SGDdilutionassay_Metabolism/Data/Wax_Dipping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C8BB4-4B08-E547-8CF6-8E5E0701654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83AC934-8454-9041-BE3D-7895F50A2D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{AFDAEAEA-587B-8447-8430-5EF34880F428}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>y=mx+c</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>surface_area_cm2</t>
   </si>
 </sst>
 </file>
@@ -348,37 +351,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3632.466505713438</c:v>
+                  <c:v>36.324665057134382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4172.8204421309183</c:v>
+                  <c:v>41.728204421309187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3141.5926535899998</c:v>
+                  <c:v>31.415926535899999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2177.1237089378701</c:v>
+                  <c:v>21.771237089378701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1719.2365796771276</c:v>
+                  <c:v>17.192365796771277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1366.5928043116498</c:v>
+                  <c:v>13.665928043116498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>970.75212995931008</c:v>
+                  <c:v>9.7075212995931004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>663.66144807088745</c:v>
+                  <c:v>6.6366144807088743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>741.41586624724005</c:v>
+                  <c:v>7.4141586624724001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>317.30085801259003</c:v>
+                  <c:v>3.1730085801259005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2704.9112747409904</c:v>
+                  <c:v>27.049112747409904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EA8F57-22D8-1F4F-9F32-C318D236D4E8}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,6 +1622,8 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
     <col min="249" max="249" width="22" customWidth="1"/>
     <col min="250" max="250" width="10.6640625" customWidth="1"/>
     <col min="251" max="251" width="13.1640625" customWidth="1"/>
@@ -2440,12 +2445,12 @@
     <col min="16138" max="16138" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2487,8 +2492,11 @@
       <c r="M5" t="s">
         <v>26</v>
       </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2523,8 +2531,12 @@
         <f>((3.14159265359*((K6/2)^2)+(2*3.14159265359*(K6/2)*L6)))</f>
         <v>3632.466505713438</v>
       </c>
+      <c r="N6">
+        <f>M6/100</f>
+        <v>36.324665057134382</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
@@ -2532,8 +2544,8 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <f>((3.14159265359*((A7/2)^2)+(2*3.14159265359*(A7/2)*B7)))</f>
-        <v>3632.466505713438</v>
+        <f>((3.14159265359*((A7/2)^2)+(2*3.14159265359*(A7/2)*B7)))/100</f>
+        <v>36.324665057134382</v>
       </c>
       <c r="D7" s="9">
         <v>54.546700000000001</v>
@@ -2561,8 +2573,12 @@
         <f t="shared" ref="M7:M16" si="0">((3.14159265359*((K7/2)^2)+(2*3.14159265359*(K7/2)*L7)))</f>
         <v>4172.8204421309183</v>
       </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N16" si="1">M7/100</f>
+        <v>41.728204421309187</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2570,8 +2586,8 @@
         <v>58</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C17" si="1">((3.14159265359*((A8/2)^2)+(2*3.14159265359*(A8/2)*B8)))</f>
-        <v>4172.8204421309183</v>
+        <f t="shared" ref="C8:C17" si="2">((3.14159265359*((A8/2)^2)+(2*3.14159265359*(A8/2)*B8)))/100</f>
+        <v>41.728204421309187</v>
       </c>
       <c r="D8" s="9">
         <v>50.776899999999998</v>
@@ -2580,7 +2596,7 @@
         <v>51.629899999999999</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:F17" si="2">E8-D8</f>
+        <f t="shared" ref="F8:F17" si="3">E8-D8</f>
         <v>0.85300000000000153</v>
       </c>
       <c r="G8" t="s">
@@ -2599,8 +2615,12 @@
         <f t="shared" si="0"/>
         <v>3141.5926535899998</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>31.415926535899999</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -2608,8 +2628,8 @@
         <v>45</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>3141.5926535899998</v>
+        <f t="shared" si="2"/>
+        <v>31.415926535899999</v>
       </c>
       <c r="D9" s="9">
         <v>26.9998</v>
@@ -2618,7 +2638,7 @@
         <v>27.523399999999999</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52359999999999829</v>
       </c>
       <c r="G9" t="s">
@@ -2637,8 +2657,12 @@
         <f t="shared" si="0"/>
         <v>2177.1237089378701</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>21.771237089378701</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2646,8 +2670,8 @@
         <v>46</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>2177.1237089378701</v>
+        <f t="shared" si="2"/>
+        <v>21.771237089378701</v>
       </c>
       <c r="D10" s="9">
         <v>7.2653999999999996</v>
@@ -2656,7 +2680,7 @@
         <v>7.5407000000000002</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27530000000000054</v>
       </c>
       <c r="G10" t="s">
@@ -2675,8 +2699,12 @@
         <f t="shared" si="0"/>
         <v>1719.2365796771276</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>17.192365796771277</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2684,8 +2712,8 @@
         <v>47</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1719.2365796771276</v>
+        <f t="shared" si="2"/>
+        <v>17.192365796771277</v>
       </c>
       <c r="D11" s="9">
         <v>4.6319999999999997</v>
@@ -2694,7 +2722,7 @@
         <v>4.9278000000000004</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29580000000000073</v>
       </c>
       <c r="G11" t="s">
@@ -2713,8 +2741,12 @@
         <f t="shared" si="0"/>
         <v>1366.5928043116498</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>13.665928043116498</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2722,8 +2754,8 @@
         <v>41</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>1366.5928043116498</v>
+        <f t="shared" si="2"/>
+        <v>13.665928043116498</v>
       </c>
       <c r="D12" s="9">
         <v>4.0846999999999998</v>
@@ -2732,7 +2764,7 @@
         <v>4.3095999999999997</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22489999999999988</v>
       </c>
       <c r="G12" t="s">
@@ -2751,8 +2783,12 @@
         <f t="shared" si="0"/>
         <v>970.75212995931008</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>9.7075212995931004</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2760,8 +2796,8 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>970.75212995931008</v>
+        <f t="shared" si="2"/>
+        <v>9.7075212995931004</v>
       </c>
       <c r="D13" s="9">
         <v>1.8996999999999999</v>
@@ -2770,7 +2806,7 @@
         <v>2.0945999999999998</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19489999999999985</v>
       </c>
       <c r="G13" t="s">
@@ -2789,8 +2825,12 @@
         <f t="shared" si="0"/>
         <v>663.66144807088745</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>6.6366144807088743</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2798,8 +2838,8 @@
         <v>41</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>663.66144807088745</v>
+        <f t="shared" si="2"/>
+        <v>6.6366144807088743</v>
       </c>
       <c r="D14" s="9">
         <v>1.3389</v>
@@ -2808,7 +2848,7 @@
         <v>1.4472</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10830000000000006</v>
       </c>
       <c r="G14" t="s">
@@ -2827,8 +2867,12 @@
         <f t="shared" si="0"/>
         <v>741.41586624724005</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>7.4141586624724001</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2836,8 +2880,8 @@
         <v>58</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>741.41586624724005</v>
+        <f t="shared" si="2"/>
+        <v>7.4141586624724001</v>
       </c>
       <c r="D15" s="9">
         <v>1.8479000000000001</v>
@@ -2846,7 +2890,7 @@
         <v>1.9749000000000001</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.127</v>
       </c>
       <c r="G15" t="s">
@@ -2865,8 +2909,12 @@
         <f t="shared" si="0"/>
         <v>317.30085801259003</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>3.1730085801259005</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2874,8 +2922,8 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>317.30085801259003</v>
+        <f t="shared" si="2"/>
+        <v>3.1730085801259005</v>
       </c>
       <c r="D16" s="9">
         <v>0.2445</v>
@@ -2884,7 +2932,7 @@
         <v>0.29509999999999997</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0599999999999978E-2</v>
       </c>
       <c r="G16" t="s">
@@ -2902,6 +2950,10 @@
       <c r="M16">
         <f t="shared" si="0"/>
         <v>2704.9112747409904</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>27.049112747409904</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2912,8 +2964,8 @@
         <v>58</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>2704.9112747409904</v>
+        <f t="shared" si="2"/>
+        <v>27.049112747409904</v>
       </c>
       <c r="D17" s="9">
         <v>6.4805999999999999</v>
@@ -2922,7 +2974,7 @@
         <v>6.9923000000000002</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51170000000000027</v>
       </c>
       <c r="G17" t="s">
